--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="777">
   <si>
     <t>type</t>
   </si>
@@ -2347,6 +2347,30 @@
   </si>
   <si>
     <t>number_of_samples</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>RandomSeed</t>
+  </si>
+  <si>
+    <t>RandomSeed2</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>nboot</t>
+  </si>
+  <si>
+    <t>conf</t>
   </si>
 </sst>
 </file>
@@ -4441,9 +4465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4500,6 +4521,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6639,10 +6661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6882,141 +6904,191 @@
         <v>30</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="B23" s="29">
+        <v>1979</v>
+      </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
+      <c r="A24" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" s="29">
+        <v>1973</v>
+      </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
+      <c r="A25" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="B25" s="29">
+        <v>1</v>
+      </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
+      <c r="A26" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" s="29">
+        <v>0</v>
+      </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
+      <c r="A27" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.95</v>
+      </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>536</v>
+      </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B30" s="30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
+      <c r="A31" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B31" s="28">
+        <v>1E+20</v>
+      </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A32" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="D32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B33" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B34" s="24" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B36" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>629</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>748</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B39" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="13" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B40" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C40" s="30" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="D42" s="2"/>
+    <row r="41" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="D41" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7079,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="58"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7091,21 +7163,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7120,7 +7192,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7140,7 +7212,7 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -7201,24 +7273,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="b">
+    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
@@ -7230,7 +7302,7 @@
       <c r="E5" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
@@ -7249,7 +7321,7 @@
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
         <v>671</v>
       </c>
@@ -7268,7 +7340,7 @@
       <c r="E7" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
@@ -7287,7 +7359,7 @@
       <c r="E8" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
         <v>671</v>
       </c>
@@ -7306,7 +7378,7 @@
       <c r="E9" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
@@ -7325,11 +7397,11 @@
       <c r="E10" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J10" s="30"/>
@@ -7344,11 +7416,11 @@
       <c r="E11" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F11" s="62"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J11" s="30"/>
@@ -7363,11 +7435,11 @@
       <c r="E12" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>737</v>
       </c>
       <c r="J12" s="30"/>
@@ -7382,33 +7454,33 @@
       <c r="E13" s="30" t="s">
         <v>745</v>
       </c>
-      <c r="F13" s="62"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="45" t="s">
         <v>737</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="b">
+    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -7420,7 +7492,7 @@
       <c r="E15" s="30" t="s">
         <v>723</v>
       </c>
-      <c r="F15" s="62"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
@@ -7439,7 +7511,7 @@
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
         <v>671</v>
       </c>
@@ -7458,7 +7530,7 @@
       <c r="E17" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="F17" s="62"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
@@ -7477,7 +7549,7 @@
       <c r="E18" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="F18" s="62"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
         <v>671</v>
       </c>
@@ -7496,7 +7568,7 @@
       <c r="E19" s="30" t="s">
         <v>733</v>
       </c>
-      <c r="F19" s="62"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
@@ -7515,11 +7587,11 @@
       <c r="E20" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" s="45" t="s">
         <v>698</v>
       </c>
       <c r="J20" s="30"/>
@@ -7534,11 +7606,11 @@
       <c r="E21" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="I21" s="46" t="s">
+      <c r="I21" s="45" t="s">
         <v>699</v>
       </c>
       <c r="J21" s="30"/>
@@ -7553,48 +7625,48 @@
       <c r="E22" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="45" t="s">
         <v>743</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>750</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>753</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7608,7 +7680,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7620,40 +7692,40 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
+    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>664</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0</v>
+      </c>
+      <c r="L26" s="39">
         <v>100</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="39">
         <v>15</v>
       </c>
-      <c r="N26" s="40">
+      <c r="N26" s="39">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="39">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -7667,7 +7739,7 @@
       <c r="E27" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7675,40 +7747,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
+    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54" t="s">
         <v>659</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="54" t="s">
+      <c r="F28" s="61"/>
+      <c r="G28" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="55">
+        <v>0</v>
+      </c>
+      <c r="L28" s="55">
         <v>0.1</v>
       </c>
-      <c r="M28" s="56">
+      <c r="M28" s="55">
         <v>0.05</v>
       </c>
-      <c r="N28" s="56">
+      <c r="N28" s="55">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O28" s="55">
         <v>0.01</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="R28" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -7722,7 +7794,7 @@
       <c r="E29" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7740,7 +7812,7 @@
       <c r="E30" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7758,7 +7830,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7776,7 +7848,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7794,7 +7866,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7803,20 +7875,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
+    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7832,7 +7904,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -7848,44 +7920,44 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
+      <c r="Q35" s="36"/>
+    </row>
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="50" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
+      <c r="I36" s="49">
+        <v>0</v>
+      </c>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51">
         <v>-40</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="51">
         <v>40</v>
       </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
+      <c r="M36" s="51">
+        <v>0</v>
+      </c>
+      <c r="N36" s="51">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="51">
         <v>1</v>
       </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
+      <c r="Q36" s="52"/>
+      <c r="R36" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -7895,13 +7967,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -7914,7 +7986,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="37"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -7928,7 +8000,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -7941,7 +8013,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="37"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -7955,7 +8027,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -7968,7 +8040,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="37"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -7982,7 +8054,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -7995,7 +8067,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="37"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8009,7 +8081,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8022,7 +8094,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="37"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8036,7 +8108,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8049,7 +8121,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8063,7 +8135,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8076,22 +8148,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="Q43" s="36"/>
+    </row>
+    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8105,7 +8177,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8116,44 +8188,44 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
+    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="F46" s="47"/>
+      <c r="G46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
+      <c r="I46" s="37">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39">
         <v>-80</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="39">
         <v>80</v>
       </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
+      <c r="M46" s="39">
+        <v>0</v>
+      </c>
+      <c r="N46" s="39">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="39">
         <v>1</v>
       </c>
-      <c r="R46" s="38" t="s">
+      <c r="R46" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8167,7 +8239,7 @@
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8188,7 +8260,7 @@
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
@@ -8209,7 +8281,7 @@
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
@@ -8230,7 +8302,7 @@
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8248,7 +8320,7 @@
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
@@ -8269,7 +8341,7 @@
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
@@ -8290,7 +8362,7 @@
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
@@ -8301,20 +8373,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
+    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>694</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E54" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8328,55 +8400,55 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
+      <c r="F56" s="47"/>
+      <c r="G56" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56" s="37">
         <v>0.8</v>
       </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
+      <c r="J56" s="40"/>
+      <c r="K56" s="39">
         <v>0.78</v>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="39">
         <v>0.98</v>
       </c>
-      <c r="M56" s="40">
+      <c r="M56" s="39">
         <v>0.8</v>
       </c>
-      <c r="N56" s="40">
+      <c r="N56" s="39">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="40">
+      <c r="O56" s="39">
         <v>1</v>
       </c>
-      <c r="R56" s="38" t="s">
+      <c r="R56" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8471,7 +8543,7 @@
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8489,7 +8561,7 @@
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
@@ -8510,7 +8582,7 @@
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
@@ -8531,7 +8603,7 @@
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
@@ -8542,20 +8614,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
+    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>701</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="E65" s="44" t="s">
+      <c r="E65" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8569,55 +8641,55 @@
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="49" t="s">
+      <c r="I66" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
+    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
+      <c r="F67" s="47"/>
+      <c r="G67" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="38" t="s">
+      <c r="H67" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I67" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J67" s="40"/>
+      <c r="K67" s="39">
+        <v>2</v>
+      </c>
+      <c r="L67" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M67" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
+      <c r="N67" s="39">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O67" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R67" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8631,7 +8703,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8649,7 +8721,7 @@
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
@@ -8670,7 +8742,7 @@
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
@@ -8691,7 +8763,7 @@
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
@@ -8712,7 +8784,7 @@
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8730,7 +8802,7 @@
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
@@ -8751,7 +8823,7 @@
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
@@ -8772,7 +8844,7 @@
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
@@ -8783,20 +8855,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
+    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8810,96 +8882,96 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="49" t="s">
+      <c r="I77" s="48" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="38" t="s">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="48"/>
-      <c r="G78" s="38" t="s">
+      <c r="F78" s="47"/>
+      <c r="G78" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="38" t="s">
+      <c r="H78" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I78" s="38">
-        <v>0</v>
-      </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="40">
+      <c r="I78" s="37">
+        <v>0</v>
+      </c>
+      <c r="J78" s="40"/>
+      <c r="K78" s="39">
         <v>-20</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="39">
         <v>14</v>
       </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
+      <c r="M78" s="39">
+        <v>0</v>
+      </c>
+      <c r="N78" s="39">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="40">
+      <c r="O78" s="39">
         <v>1</v>
       </c>
-      <c r="R78" s="38" t="s">
+      <c r="R78" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
+    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="38" t="s">
+      <c r="D79" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
+      <c r="F79" s="47"/>
+      <c r="G79" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="38" t="s">
+      <c r="H79" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
+      <c r="I79" s="37">
+        <v>0</v>
+      </c>
+      <c r="J79" s="40"/>
+      <c r="K79" s="39">
         <v>-25</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="39">
         <v>30</v>
       </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
+      <c r="M79" s="39">
+        <v>0</v>
+      </c>
+      <c r="N79" s="39">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="40">
+      <c r="O79" s="39">
         <v>1</v>
       </c>
-      <c r="R79" s="38" t="s">
+      <c r="R79" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8913,7 +8985,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -8931,7 +9003,7 @@
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
@@ -8952,7 +9024,7 @@
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
@@ -8973,7 +9045,7 @@
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
@@ -8994,7 +9066,7 @@
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9012,7 +9084,7 @@
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
@@ -9033,7 +9105,7 @@
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
@@ -9054,7 +9126,7 @@
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
@@ -9065,102 +9137,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
+    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D88" s="44" t="s">
+      <c r="D88" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="E88" s="44" t="s">
+      <c r="E88" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="38" t="s">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>652</v>
       </c>
-      <c r="E89" s="38" t="s">
+      <c r="E89" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="38" t="s">
+      <c r="F89" s="47"/>
+      <c r="G89" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="38" t="s">
+      <c r="H89" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I89" s="38">
-        <v>0</v>
-      </c>
-      <c r="J89" s="41"/>
-      <c r="K89" s="40">
+      <c r="I89" s="37">
+        <v>0</v>
+      </c>
+      <c r="J89" s="40"/>
+      <c r="K89" s="39">
         <v>-6</v>
       </c>
-      <c r="L89" s="40">
-        <v>2</v>
-      </c>
-      <c r="M89" s="40">
-        <v>0</v>
-      </c>
-      <c r="N89" s="40">
+      <c r="L89" s="39">
+        <v>2</v>
+      </c>
+      <c r="M89" s="39">
+        <v>0</v>
+      </c>
+      <c r="N89" s="39">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="40">
+      <c r="O89" s="39">
         <v>1</v>
       </c>
-      <c r="R89" s="38" t="s">
+      <c r="R89" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="37" t="s">
         <v>654</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="F90" s="47"/>
+      <c r="G90" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
+      <c r="H90" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
+      <c r="I90" s="37">
+        <v>0</v>
+      </c>
+      <c r="J90" s="40"/>
+      <c r="K90" s="39">
         <v>-6</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="39">
         <v>3.9</v>
       </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
+      <c r="M90" s="39">
+        <v>0</v>
+      </c>
+      <c r="N90" s="39">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="40">
+      <c r="O90" s="39">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="R90" s="37" t="s">
         <v>751</v>
       </c>
     </row>
@@ -9174,7 +9246,7 @@
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9188,481 +9260,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
+      <c r="A92" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="E92" s="44" t="s">
+      <c r="E92" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="48" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48" t="s">
+      <c r="C93" s="47"/>
+      <c r="D93" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48" t="s">
+      <c r="F93" s="47"/>
+      <c r="G93" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48">
+      <c r="H93" s="47"/>
+      <c r="I93" s="47">
         <v>1</v>
       </c>
-      <c r="J93" s="48"/>
-      <c r="K93" s="48">
+      <c r="J93" s="47"/>
+      <c r="K93" s="47">
         <v>0.5</v>
       </c>
-      <c r="L93" s="48">
+      <c r="L93" s="47">
         <v>4.5</v>
       </c>
-      <c r="M93" s="40">
+      <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
+      <c r="N93" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="48">
+      <c r="O93" s="47">
         <v>0.1</v>
       </c>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38" t="s">
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="48" t="s">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48" t="s">
+      <c r="C94" s="47"/>
+      <c r="D94" s="47" t="s">
         <v>678</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48" t="s">
+      <c r="F94" s="47"/>
+      <c r="G94" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48">
+      <c r="H94" s="47"/>
+      <c r="I94" s="47">
         <v>1</v>
       </c>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48">
+      <c r="J94" s="47"/>
+      <c r="K94" s="47">
         <v>0.1</v>
       </c>
-      <c r="L94" s="48">
+      <c r="L94" s="47">
         <v>4.5</v>
       </c>
-      <c r="M94" s="40">
+      <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="47">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="47">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38" t="s">
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
+      <c r="C95" s="47"/>
+      <c r="D95" s="47" t="s">
         <v>680</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="F95" s="47"/>
+      <c r="G95" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J95" s="47"/>
+      <c r="K95" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L95" s="47">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M95" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N95" s="39">
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O95" s="39">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="37" t="s">
         <v>751</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
+      <c r="A96" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="E96" s="44" t="s">
+      <c r="E96" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="48" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48" t="s">
+      <c r="C97" s="47"/>
+      <c r="D97" s="47" t="s">
         <v>686</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="47" t="s">
         <v>677</v>
       </c>
-      <c r="F97" s="48"/>
-      <c r="G97" s="48" t="s">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="48"/>
-      <c r="I97" s="48">
+      <c r="H97" s="47"/>
+      <c r="I97" s="47">
         <v>1</v>
       </c>
-      <c r="J97" s="48"/>
-      <c r="K97" s="48">
+      <c r="J97" s="47"/>
+      <c r="K97" s="47">
         <v>0.5</v>
       </c>
-      <c r="L97" s="48">
+      <c r="L97" s="47">
         <v>4</v>
       </c>
-      <c r="M97" s="40">
+      <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="37">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="48">
+      <c r="O97" s="47">
         <v>0.1</v>
       </c>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38" t="s">
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48" t="s">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48" t="s">
+      <c r="C98" s="47"/>
+      <c r="D98" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="F98" s="48"/>
-      <c r="G98" s="48" t="s">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="48"/>
-      <c r="I98" s="48">
+      <c r="H98" s="47"/>
+      <c r="I98" s="47">
         <v>1</v>
       </c>
-      <c r="J98" s="48"/>
-      <c r="K98" s="48">
+      <c r="J98" s="47"/>
+      <c r="K98" s="47">
         <v>0.5</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L98" s="47">
         <v>4</v>
       </c>
-      <c r="M98" s="40">
+      <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="47">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="47">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
-      <c r="R98" s="38" t="s">
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
+      <c r="C99" s="47"/>
+      <c r="D99" s="47" t="s">
         <v>688</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="47" t="s">
         <v>681</v>
       </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H99" s="47"/>
+      <c r="I99" s="47">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
+      <c r="J99" s="47"/>
+      <c r="K99" s="47">
         <v>0.5</v>
       </c>
-      <c r="L99" s="48">
+      <c r="L99" s="47">
         <v>3</v>
       </c>
-      <c r="M99" s="40">
+      <c r="M99" s="39">
         <v>1.75</v>
       </c>
-      <c r="N99" s="40">
+      <c r="N99" s="39">
         <v>0.25</v>
       </c>
-      <c r="O99" s="40">
+      <c r="O99" s="39">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
+    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="43" t="s">
         <v>709</v>
       </c>
-      <c r="C100" s="44" t="s">
+      <c r="C100" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="D100" s="44" t="s">
+      <c r="D100" s="43" t="s">
         <v>708</v>
       </c>
-      <c r="E100" s="44" t="s">
+      <c r="E100" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
+    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="53" t="s">
         <v>712</v>
       </c>
-      <c r="E101" s="54" t="s">
+      <c r="E101" s="53" t="s">
         <v>710</v>
       </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="54" t="s">
+      <c r="F101" s="61"/>
+      <c r="G101" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
+      <c r="I101" s="53">
         <v>1</v>
       </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
+      <c r="J101" s="56"/>
+      <c r="K101" s="55">
         <v>0.9</v>
       </c>
-      <c r="L101" s="56">
+      <c r="L101" s="55">
         <v>1</v>
       </c>
-      <c r="M101" s="56">
+      <c r="M101" s="55">
         <v>0.95</v>
       </c>
-      <c r="N101" s="56">
+      <c r="N101" s="55">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="55">
         <v>0.1</v>
       </c>
-      <c r="R101" s="38" t="s">
+      <c r="R101" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
+    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="38" t="s">
+      <c r="D102" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
+      <c r="F102" s="47"/>
+      <c r="G102" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="38" t="s">
+      <c r="H102" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I102" s="38">
+      <c r="I102" s="37">
         <v>1450</v>
       </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
+      <c r="J102" s="40"/>
+      <c r="K102" s="39">
+        <v>0</v>
+      </c>
+      <c r="L102" s="39">
         <v>3000</v>
       </c>
-      <c r="M102" s="40">
+      <c r="M102" s="39">
         <v>1450</v>
       </c>
-      <c r="N102" s="40">
+      <c r="N102" s="39">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="40">
+      <c r="O102" s="39">
         <v>50</v>
       </c>
-      <c r="R102" s="38" t="s">
+      <c r="R102" s="37" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
+      <c r="Q103" s="34"/>
+      <c r="R103" s="34"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="45"/>
+      <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="45"/>
+      <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="45"/>
+      <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="45"/>
+      <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="45"/>
+      <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="45"/>
+      <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="45"/>
+      <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
+      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10059,7 +10131,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10077,7 +10149,7 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -10115,7 +10187,7 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -10183,7 +10255,7 @@
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
         <v>754</v>
@@ -10212,7 +10284,7 @@
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
         <v>755</v>
@@ -10241,7 +10313,7 @@
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
         <v>756</v>

--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -4518,10 +4518,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1839">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6664,7 +6664,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6993,7 +6993,7 @@
         <v>769</v>
       </c>
       <c r="B31" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="32"/>
@@ -7005,7 +7005,7 @@
       <c r="B32" s="29">
         <v>0</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>771</v>
       </c>
       <c r="D32" s="32"/>
@@ -7170,14 +7170,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="786">
   <si>
     <t>type</t>
   </si>
@@ -2355,9 +2355,6 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
-  </si>
-  <si>
     <t>RandomSeed</t>
   </si>
   <si>
@@ -2371,6 +2368,36 @@
   </si>
   <si>
     <t>conf</t>
+  </si>
+  <si>
+    <t>Lp norm power (must be non-negative)</t>
+  </si>
+  <si>
+    <t>"minkowski", "maximum", "euclidean", "binary", "manhattan"</t>
+  </si>
+  <si>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>integer, the maximum order in the ANOVA decomposition (all indices up to this order will be computed)</t>
+  </si>
+  <si>
+    <t>the number of bootstrap replicates</t>
+  </si>
+  <si>
+    <t>the confidence level for bootstrap confidence intervals</t>
+  </si>
+  <si>
+    <t>sobol, sobol2002, sobol2007, jansen, mara, martinez</t>
+  </si>
+  <si>
+    <t>the first random seed</t>
+  </si>
+  <si>
+    <t>the second random seed</t>
   </si>
 </sst>
 </file>
@@ -4400,7 +4427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4518,7 +4545,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6664,7 +6690,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6903,57 +6929,69 @@
       <c r="B22" s="29">
         <v>30</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B23" s="29">
         <v>1979</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" t="s">
+        <v>784</v>
+      </c>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B24" s="29">
         <v>1973</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" t="s">
+        <v>785</v>
+      </c>
       <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" t="s">
+        <v>780</v>
+      </c>
       <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B26" s="29">
         <v>0</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" t="s">
+        <v>781</v>
+      </c>
       <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B27" s="29">
         <v>0.95</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" t="s">
+        <v>782</v>
+      </c>
       <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6963,7 +7001,9 @@
       <c r="B28" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>783</v>
+      </c>
       <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6973,7 +7013,9 @@
       <c r="B29" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="29" t="s">
+        <v>777</v>
+      </c>
       <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6984,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>569</v>
+        <v>776</v>
       </c>
       <c r="D30" s="32"/>
     </row>
@@ -6995,7 +7037,9 @@
       <c r="B31" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="29" t="s">
+        <v>778</v>
+      </c>
       <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7005,8 +7049,8 @@
       <c r="B32" s="29">
         <v>0</v>
       </c>
-      <c r="C32" s="63" t="s">
-        <v>771</v>
+      <c r="C32" s="29" t="s">
+        <v>779</v>
       </c>
       <c r="D32" s="32"/>
     </row>
@@ -7170,14 +7214,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -6689,8 +6689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6927,7 +6927,7 @@
         <v>768</v>
       </c>
       <c r="B22" s="29">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>4</v>
@@ -7047,7 +7047,7 @@
         <v>770</v>
       </c>
       <c r="B32" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>779</v>

--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6689,7 +6689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7155,11 +7155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7678,167 +7678,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="b">
+    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>750</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>753</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="b">
+      <c r="B23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
+        <v>100</v>
+      </c>
+      <c r="M25" s="39">
+        <v>15</v>
+      </c>
+      <c r="N25" s="39">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="39">
         <v>1</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37" t="s">
+      <c r="R25" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="K26" s="39">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
-        <v>100</v>
-      </c>
-      <c r="M26" s="39">
-        <v>15</v>
-      </c>
-      <c r="N26" s="39">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="39">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="37" t="s">
+    </row>
+    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="55">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="55">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="K28" s="55">
-        <v>0</v>
-      </c>
-      <c r="L28" s="55">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="55">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7851,10 +7850,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7869,10 +7868,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7887,123 +7886,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="49">
+        <v>0</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="51">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="51">
+        <v>40</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="51">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="36"/>
-    </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>44</v>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="49">
-        <v>0</v>
-      </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="51">
-        <v>40</v>
-      </c>
-      <c r="M36" s="51">
-        <v>0</v>
-      </c>
-      <c r="N36" s="51">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="37" t="s">
-        <v>751</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -8011,11 +8019,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="41" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -8039,14 +8047,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -8066,18 +8074,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8093,18 +8101,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8120,18 +8128,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8147,18 +8155,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8167,123 +8175,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="36"/>
-    </row>
-    <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="b">
+      <c r="B43" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="37">
+        <v>0</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="39">
+        <v>80</v>
+      </c>
+      <c r="M45" s="39">
+        <v>0</v>
+      </c>
+      <c r="N45" s="39">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="39">
         <v>1</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37" t="s">
+      <c r="R45" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="37">
-        <v>0</v>
-      </c>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="39">
-        <v>80</v>
-      </c>
-      <c r="M46" s="39">
-        <v>0</v>
-      </c>
-      <c r="N46" s="39">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="39">
-        <v>1</v>
-      </c>
-      <c r="R46" s="37" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8299,17 +8301,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8320,19 +8322,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8341,17 +8340,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8359,141 +8361,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="39">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="37">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="39">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="39">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="39">
-        <v>1</v>
-      </c>
-      <c r="R56" s="37" t="s">
+      <c r="R55" s="37" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8501,16 +8500,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8519,10 +8521,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8540,40 +8542,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8582,17 +8581,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8600,20 +8602,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8621,120 +8623,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="37">
+      <c r="I66" s="37">
         <v>4</v>
       </c>
-      <c r="J67" s="40"/>
-      <c r="K67" s="39">
-        <v>2</v>
-      </c>
-      <c r="L67" s="39">
+      <c r="J66" s="40"/>
+      <c r="K66" s="39">
+        <v>2</v>
+      </c>
+      <c r="L66" s="39">
         <v>5</v>
       </c>
-      <c r="M67" s="39">
+      <c r="M66" s="39">
         <v>4</v>
       </c>
-      <c r="N67" s="39">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="39">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="39">
+      <c r="O66" s="39">
         <v>0.25</v>
       </c>
-      <c r="R67" s="37" t="s">
+      <c r="R66" s="37" t="s">
         <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8742,16 +8741,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8760,10 +8762,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8781,17 +8783,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8802,19 +8804,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8823,17 +8822,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8841,20 +8843,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8862,79 +8864,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="37">
+        <v>0</v>
+      </c>
+      <c r="J77" s="40"/>
+      <c r="K77" s="39">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="39">
+        <v>14</v>
+      </c>
+      <c r="M77" s="39">
+        <v>0</v>
+      </c>
+      <c r="N77" s="39">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="37" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8942,10 +8964,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="37" t="s">
@@ -8959,17 +8981,17 @@
       </c>
       <c r="J78" s="40"/>
       <c r="K78" s="39">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="39">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="39">
         <v>0</v>
       </c>
       <c r="N78" s="39">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="39">
         <v>1</v>
@@ -8978,45 +9000,22 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="37">
-        <v>0</v>
-      </c>
-      <c r="J79" s="40"/>
-      <c r="K79" s="39">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="39">
-        <v>30</v>
-      </c>
-      <c r="M79" s="39">
-        <v>0</v>
-      </c>
-      <c r="N79" s="39">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="39">
-        <v>1</v>
-      </c>
-      <c r="R79" s="37" t="s">
-        <v>751</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9024,16 +9023,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -9042,10 +9044,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -9063,40 +9065,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9105,17 +9104,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9123,20 +9125,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9144,58 +9146,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="47"/>
+      <c r="G88" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="37" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="37">
+        <v>0</v>
+      </c>
+      <c r="J88" s="40"/>
+      <c r="K88" s="39">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="39">
+        <v>2</v>
+      </c>
+      <c r="M88" s="39">
+        <v>0</v>
+      </c>
+      <c r="N88" s="39">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>66</v>
+      <c r="R88" s="37" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9203,10 +9225,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="37" t="s">
@@ -9223,14 +9245,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="39">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="39">
         <v>0</v>
       </c>
       <c r="N89" s="39">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="39">
         <v>1</v>
@@ -9239,111 +9261,113 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="37" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="46" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="37"/>
+      <c r="B92" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="37" t="s">
+      <c r="C92" s="47"/>
+      <c r="D92" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="37" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="37">
-        <v>0</v>
-      </c>
-      <c r="J90" s="40"/>
-      <c r="K90" s="39">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="39">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="39">
-        <v>0</v>
-      </c>
-      <c r="N90" s="39">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="39">
+      <c r="H92" s="47"/>
+      <c r="I92" s="47">
         <v>1</v>
       </c>
-      <c r="R90" s="37" t="s">
+      <c r="J92" s="47"/>
+      <c r="K92" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="39">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="37">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="46"/>
-      <c r="H92" s="46"/>
-      <c r="I92" s="46"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="46"/>
-      <c r="L92" s="46"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="47" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="47"/>
       <c r="G93" s="47" t="s">
@@ -9355,7 +9379,7 @@
       </c>
       <c r="J93" s="47"/>
       <c r="K93" s="47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="47">
         <v>4.5</v>
@@ -9363,8 +9387,7 @@
       <c r="M93" s="39">
         <v>1.75</v>
       </c>
-      <c r="N93" s="37">
-        <f>1.5/6</f>
+      <c r="N93" s="47">
         <v>0.25</v>
       </c>
       <c r="O93" s="47">
@@ -9383,10 +9406,10 @@
       </c>
       <c r="C94" s="47"/>
       <c r="D94" s="47" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="47"/>
       <c r="G94" s="47" t="s">
@@ -9398,110 +9421,111 @@
       </c>
       <c r="J94" s="47"/>
       <c r="K94" s="47">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="47">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="39">
         <v>1.75</v>
       </c>
-      <c r="N94" s="47">
+      <c r="N94" s="39">
         <v>0.25</v>
       </c>
-      <c r="O94" s="47">
+      <c r="O94" s="39">
         <v>0.1</v>
       </c>
-      <c r="P94" s="37"/>
-      <c r="Q94" s="37"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
       <c r="R94" s="37" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="37"/>
+      <c r="B96" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47" t="s">
+      <c r="C96" s="47"/>
+      <c r="D96" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47">
+      <c r="H96" s="47"/>
+      <c r="I96" s="47">
         <v>1</v>
       </c>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47">
+      <c r="J96" s="47"/>
+      <c r="K96" s="47">
         <v>0.5</v>
       </c>
-      <c r="L95" s="47">
-        <v>3</v>
-      </c>
-      <c r="M95" s="39">
+      <c r="L96" s="47">
+        <v>4</v>
+      </c>
+      <c r="M96" s="39">
         <v>1.75</v>
       </c>
-      <c r="N95" s="39">
+      <c r="N96" s="37">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="39">
+      <c r="O96" s="47">
         <v>0.1</v>
       </c>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="37" t="s">
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="46"/>
-      <c r="H96" s="46"/>
-      <c r="I96" s="46"/>
-      <c r="J96" s="46"/>
-      <c r="K96" s="46"/>
-      <c r="L96" s="46"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="47" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="47" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="47"/>
       <c r="G97" s="47" t="s">
@@ -9521,8 +9545,7 @@
       <c r="M97" s="39">
         <v>1.75</v>
       </c>
-      <c r="N97" s="37">
-        <f>1.5/6</f>
+      <c r="N97" s="47">
         <v>0.25</v>
       </c>
       <c r="O97" s="47">
@@ -9541,10 +9564,10 @@
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="47" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="47" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="47"/>
       <c r="G98" s="47" t="s">
@@ -9559,186 +9582,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="39">
         <v>1.75</v>
       </c>
-      <c r="N98" s="47">
+      <c r="N98" s="39">
         <v>0.25</v>
       </c>
-      <c r="O98" s="47">
+      <c r="O98" s="39">
         <v>0.1</v>
       </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
       <c r="R98" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47" t="s">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="53" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="53">
+        <v>1</v>
+      </c>
+      <c r="J100" s="56"/>
+      <c r="K100" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="55">
+        <v>1</v>
+      </c>
+      <c r="M100" s="55">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="55">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47" t="s">
+      <c r="D101" s="37" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="47"/>
+      <c r="G101" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47">
-        <v>1</v>
-      </c>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="47">
-        <v>3</v>
-      </c>
-      <c r="M99" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="37" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="53" t="s">
+      <c r="H101" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="53">
-        <v>1</v>
-      </c>
-      <c r="J101" s="56"/>
-      <c r="K101" s="55">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="55">
-        <v>1</v>
-      </c>
-      <c r="M101" s="55">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="55">
+      <c r="I101" s="37">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="40"/>
+      <c r="K101" s="39">
+        <v>0</v>
+      </c>
+      <c r="L101" s="39">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="39">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="39">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="55">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="39">
+        <v>50</v>
       </c>
       <c r="R101" s="37" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="47"/>
-      <c r="G102" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="37">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="40"/>
-      <c r="K102" s="39">
-        <v>0</v>
-      </c>
-      <c r="L102" s="39">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="39">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="39">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="39">
-        <v>50</v>
-      </c>
-      <c r="R102" s="37" t="s">
-        <v>751</v>
-      </c>
+    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="34"/>
-      <c r="G103" s="34"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="34"/>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="34"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9778,7 +9763,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="44"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10130,12 +10114,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_Sobol_2013.xlsx
+++ b/projects/SEB_Sobol_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2298,48 +2298,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>SEB4 baseboard Sobol 2013</t>
   </si>
   <si>
@@ -2398,6 +2359,45 @@
   </si>
   <si>
     <t>the second random seed</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6689,21 +6689,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6712,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6743,18 +6743,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>785</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6825,18 +6825,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6893,19 +6893,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6922,9 +6922,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="B22" s="29">
         <v>4</v>
@@ -6934,79 +6934,79 @@
       </c>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="B23" s="29">
         <v>1979</v>
       </c>
       <c r="C23" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B24" s="29">
         <v>1973</v>
       </c>
       <c r="C24" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="B25" s="29">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="A26" s="30" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="B26" s="29">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="A27" s="30" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="B27" s="29">
         <v>0.95</v>
       </c>
       <c r="C27" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="A28" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="A29" s="30" t="s">
         <v>535</v>
       </c>
@@ -7014,11 +7014,11 @@
         <v>536</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="D29" s="32"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="A30" s="30" t="s">
         <v>537</v>
       </c>
@@ -7026,35 +7026,35 @@
         <v>2</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="D30" s="32"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="30" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="B31" s="28">
         <v>1E+18</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D31" s="32"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="30" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A33" s="11" t="s">
         <v>32</v>
       </c>
@@ -7067,7 +7067,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>29</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="30" customFormat="1">
       <c r="A37" s="30" t="s">
         <v>31</v>
       </c>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="30" t="s">
         <v>632</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="30" customFormat="1">
       <c r="B41" s="25"/>
       <c r="D41" s="2"/>
     </row>
@@ -7144,7 +7144,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7157,37 +7156,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7223,7 +7222,7 @@
       <c r="Y1" s="63"/>
       <c r="Z1" s="63"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7240,7 +7239,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="34" customFormat="1">
       <c r="A4" s="34" t="b">
         <v>1</v>
       </c>
@@ -7336,7 +7335,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7374,7 +7373,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7393,7 +7392,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7412,7 +7411,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7431,7 +7430,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7450,7 +7449,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7469,7 +7468,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7488,7 +7487,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7507,7 +7506,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="34" customFormat="1">
       <c r="A14" s="34" t="b">
         <v>1</v>
       </c>
@@ -7526,7 +7525,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7545,7 +7544,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7564,7 +7563,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7583,7 +7582,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7601,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7620,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7640,7 +7639,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7658,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7678,7 +7677,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="42" customFormat="1">
       <c r="A23" s="42" t="b">
         <v>1</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7717,7 +7716,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B25" s="37" t="s">
         <v>22</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7772,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="53" customFormat="1">
       <c r="B27" s="53" t="s">
         <v>21</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7863,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7900,7 +7899,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="43" customFormat="1">
       <c r="A33" s="43" t="b">
         <v>1</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7947,7 +7946,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="36"/>
     </row>
-    <row r="35" spans="1:18" s="49" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="49" customFormat="1" ht="15">
       <c r="B35" s="49" t="s">
         <v>21</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -8013,7 +8012,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="36"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -8040,7 +8039,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="36"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -8067,7 +8066,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="36"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8094,7 +8093,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="36"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8121,7 +8120,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="36"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8148,7 +8147,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="36"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8175,7 +8174,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="36"/>
     </row>
-    <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="43" customFormat="1">
       <c r="A43" s="43" t="b">
         <v>1</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8213,7 +8212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B45" s="37" t="s">
         <v>22</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8335,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8377,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="43" t="b">
         <v>1</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B55" s="37" t="s">
         <v>22</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8639,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="43" t="b">
         <v>1</v>
       </c>
@@ -8656,7 +8655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B66" s="37" t="s">
         <v>22</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="43" t="b">
         <v>1</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B77" s="37" t="s">
         <v>22</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B78" s="37" t="s">
         <v>22</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9099,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9141,7 +9140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="43" customFormat="1">
       <c r="A87" s="43" t="b">
         <v>1</v>
       </c>
@@ -9179,7 +9178,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B88" s="37" t="s">
         <v>22</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="37" customFormat="1" ht="15">
       <c r="B89" s="37" t="s">
         <v>22</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9284,7 +9283,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="46" t="b">
         <v>1</v>
       </c>
@@ -9314,7 +9313,7 @@
       <c r="Q91" s="43"/>
       <c r="R91" s="43"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="37"/>
       <c r="B92" s="47" t="s">
         <v>22</v>
@@ -9357,7 +9356,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="47"/>
       <c r="B93" s="47" t="s">
         <v>22</v>
@@ -9399,7 +9398,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="47"/>
       <c r="B94" s="47" t="s">
         <v>22</v>
@@ -9442,7 +9441,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="46" t="b">
         <v>1</v>
       </c>
@@ -9472,7 +9471,7 @@
       <c r="Q95" s="43"/>
       <c r="R95" s="43"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="37"/>
       <c r="B96" s="47" t="s">
         <v>22</v>
@@ -9515,7 +9514,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="47"/>
       <c r="B97" s="47" t="s">
         <v>22</v>
@@ -9557,7 +9556,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="47"/>
       <c r="B98" s="47" t="s">
         <v>22</v>
@@ -9599,7 +9598,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="43" t="b">
         <v>1</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="53" customFormat="1">
       <c r="B100" s="53" t="s">
         <v>21</v>
       </c>
@@ -9657,7 +9656,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="37" customFormat="1" ht="15">
       <c r="B101" s="37" t="s">
         <v>22</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="34" customFormat="1">
       <c r="A102" s="34" t="b">
         <v>1</v>
       </c>
@@ -9706,10 +9705,10 @@
         <v>750</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D102" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E102" s="34" t="s">
         <v>231</v>
@@ -9717,400 +9716,400 @@
       <c r="H102" s="35"/>
       <c r="I102" s="35"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="44"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="44"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="44"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="44"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="44"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="44"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="44"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="44"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10120,7 +10119,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10138,22 +10136,22 @@
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="57"/>
       <c r="C1" s="5"/>
@@ -10169,7 +10167,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10207,7 +10205,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10246,7 +10244,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10275,14 +10273,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10304,14 +10302,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10333,14 +10331,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="44"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10361,14 +10359,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10389,14 +10387,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10417,14 +10415,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10445,14 +10443,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10473,14 +10471,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10501,14 +10499,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10524,14 +10522,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10547,14 +10545,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10570,13 +10568,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10591,180 +10589,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10781,19 +10778,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10812,7 +10809,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10833,7 +10830,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10856,7 +10853,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10879,7 +10876,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10902,7 +10899,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10925,7 +10922,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10948,7 +10945,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10971,7 +10968,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10994,7 +10991,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11017,7 +11014,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11036,7 +11033,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11057,7 +11054,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11080,7 +11077,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11103,7 +11100,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11126,7 +11123,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11149,7 +11146,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11172,7 +11169,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11195,7 +11192,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11218,7 +11215,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11241,7 +11238,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11260,7 +11257,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11283,7 +11280,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11306,7 +11303,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11329,7 +11326,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11352,7 +11349,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11375,7 +11372,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11398,7 +11395,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11421,7 +11418,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11444,7 +11441,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11467,7 +11464,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11486,7 +11483,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11507,7 +11504,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11530,7 +11527,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11553,7 +11550,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11576,7 +11573,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11599,7 +11596,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11622,7 +11619,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11645,7 +11642,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11668,7 +11665,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11691,7 +11688,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11710,7 +11707,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11731,7 +11728,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11754,7 +11751,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11777,7 +11774,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11800,7 +11797,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11823,7 +11820,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11846,7 +11843,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11869,7 +11866,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11892,7 +11889,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11915,7 +11912,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11934,7 +11931,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11955,7 +11952,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11978,7 +11975,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12001,7 +11998,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12024,7 +12021,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12047,7 +12044,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12070,7 +12067,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12093,7 +12090,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12116,7 +12113,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12139,7 +12136,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12158,7 +12155,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12179,7 +12176,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12204,7 +12201,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12227,7 +12224,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12250,7 +12247,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12273,7 +12270,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12296,7 +12293,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12319,7 +12316,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12342,7 +12339,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12365,7 +12362,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12388,7 +12385,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12407,7 +12404,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12428,7 +12425,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12451,7 +12448,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12476,7 +12473,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12499,7 +12496,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12522,7 +12519,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12545,7 +12542,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12568,7 +12565,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12591,7 +12588,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12614,7 +12611,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12637,7 +12634,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12660,7 +12657,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12683,7 +12680,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12706,7 +12703,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12725,7 +12722,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12748,7 +12745,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12771,7 +12768,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12794,7 +12791,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12817,7 +12814,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12840,7 +12837,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12863,7 +12860,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12886,7 +12883,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12909,7 +12906,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12932,7 +12929,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12955,7 +12952,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12974,7 +12971,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12999,7 +12996,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13018,7 +13015,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13039,7 +13036,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13064,7 +13061,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13083,7 +13080,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13106,7 +13103,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13131,7 +13128,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13154,7 +13151,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13175,7 +13172,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13194,7 +13191,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13219,7 +13216,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13242,7 +13239,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13265,7 +13262,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13288,7 +13285,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13311,7 +13308,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13334,7 +13331,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13357,7 +13354,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13376,7 +13373,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13399,7 +13396,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13422,7 +13419,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13445,7 +13442,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13464,7 +13461,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13487,7 +13484,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13510,7 +13507,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13533,7 +13530,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13556,7 +13553,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13579,7 +13576,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13602,7 +13599,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13621,7 +13618,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13646,7 +13643,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13669,7 +13666,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13692,7 +13689,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13715,7 +13712,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13738,7 +13735,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13761,7 +13758,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13784,7 +13781,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13807,7 +13804,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13830,7 +13827,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13849,7 +13846,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13874,7 +13871,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13895,7 +13892,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13918,7 +13915,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13941,7 +13938,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13964,7 +13961,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13987,7 +13984,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14010,7 +14007,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14033,7 +14030,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14056,7 +14053,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14079,7 +14076,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14102,7 +14099,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14125,7 +14122,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14148,7 +14145,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14171,7 +14168,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14190,7 +14187,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14213,7 +14210,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14232,7 +14229,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14255,7 +14252,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14278,7 +14275,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14297,7 +14294,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14322,7 +14319,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14345,7 +14342,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14368,7 +14365,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14391,7 +14388,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14414,7 +14411,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14437,7 +14434,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14460,7 +14457,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14483,7 +14480,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14506,7 +14503,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14529,7 +14526,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14548,7 +14545,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14573,7 +14570,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14596,7 +14593,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14619,7 +14616,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14642,7 +14639,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14665,7 +14662,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14688,7 +14685,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14711,7 +14708,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14734,7 +14731,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14757,7 +14754,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14780,7 +14777,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14799,7 +14796,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14822,7 +14819,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14845,7 +14842,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14868,7 +14865,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14891,7 +14888,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14910,7 +14907,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14933,7 +14930,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14956,7 +14953,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14979,7 +14976,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15002,7 +14999,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15021,7 +15018,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15042,7 +15039,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15065,7 +15062,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15084,7 +15081,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15107,7 +15104,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15132,7 +15129,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15153,7 +15150,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15178,7 +15175,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15203,7 +15200,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15222,7 +15219,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15247,7 +15244,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15270,7 +15267,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15293,7 +15290,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15316,7 +15313,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15339,7 +15336,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15362,7 +15359,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15385,7 +15382,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15408,7 +15405,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15431,7 +15428,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15450,7 +15447,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15475,7 +15472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15498,7 +15495,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15521,7 +15518,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15544,7 +15541,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15567,7 +15564,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15590,7 +15587,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15613,7 +15610,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15636,7 +15633,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15659,7 +15656,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15678,7 +15675,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15699,7 +15696,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15722,7 +15719,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15745,7 +15742,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15768,7 +15765,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15791,7 +15788,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15814,7 +15811,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15837,7 +15834,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15860,7 +15857,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15883,7 +15880,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15906,7 +15903,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15929,7 +15926,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15952,7 +15949,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15975,7 +15972,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15998,7 +15995,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16021,7 +16018,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16044,7 +16041,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16063,7 +16060,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16084,7 +16081,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16107,7 +16104,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16130,7 +16127,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16153,7 +16150,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16176,7 +16173,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16199,7 +16196,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16222,7 +16219,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16245,7 +16242,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16268,7 +16265,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16291,7 +16288,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16314,7 +16311,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16337,7 +16334,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16360,7 +16357,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16383,7 +16380,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16406,7 +16403,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16429,7 +16426,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16448,7 +16445,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16473,7 +16470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16496,7 +16493,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16519,7 +16516,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16542,7 +16539,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16565,7 +16562,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16584,7 +16581,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16609,7 +16606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16632,7 +16629,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16651,7 +16648,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16670,7 +16667,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16689,7 +16686,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16710,7 +16707,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16733,7 +16730,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16756,7 +16753,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16779,7 +16776,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16802,7 +16799,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16825,7 +16822,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16848,7 +16845,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16871,7 +16868,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16894,7 +16891,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16917,7 +16914,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16940,7 +16937,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16959,7 +16956,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16982,7 +16979,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17001,7 +16998,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17026,7 +17023,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17049,7 +17046,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17072,7 +17069,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17095,7 +17092,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17118,7 +17115,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17141,7 +17138,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17164,7 +17161,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17187,7 +17184,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17210,7 +17207,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17233,7 +17230,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17256,7 +17253,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17275,7 +17272,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17298,7 +17295,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17317,7 +17314,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17338,7 +17335,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17357,7 +17354,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17378,7 +17375,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17397,7 +17394,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17418,7 +17415,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17437,7 +17434,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17460,7 +17457,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17479,7 +17476,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17504,7 +17501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17527,7 +17524,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17550,7 +17547,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17573,7 +17570,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17596,7 +17593,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17619,7 +17616,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17642,7 +17639,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17662,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17688,7 +17685,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17707,7 +17704,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17730,7 +17727,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17753,7 +17750,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17776,7 +17773,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17799,7 +17796,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17818,7 +17815,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17841,7 +17838,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17864,7 +17861,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17889,7 +17886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17908,7 +17905,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17933,7 +17930,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17956,7 +17953,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17975,7 +17972,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17996,7 +17993,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18017,7 +18014,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18040,7 +18037,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18059,7 +18056,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18078,7 +18075,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18103,7 +18100,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18128,7 +18125,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18142,7 +18139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18165,7 +18162,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18185,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18205,7 +18202,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18225,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18242,7 +18239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18265,7 +18262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18288,7 +18285,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18302,7 +18299,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18325,7 +18322,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18348,7 +18345,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18368,7 +18365,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18388,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18405,7 +18402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18431,7 +18428,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18460,7 +18457,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18499,7 +18496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18513,7 +18510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18533,7 +18530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18547,7 +18544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18567,7 +18564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18587,7 +18584,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18607,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18627,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18647,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18667,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18687,7 +18684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18707,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18741,7 +18738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18761,7 +18758,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18781,7 +18778,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18797,7 +18794,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18823,7 +18820,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18864,7 +18861,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18878,7 +18875,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18898,7 +18895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18912,7 +18909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18934,7 +18931,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18951,17 +18947,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18972,7 +18968,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18986,7 +18982,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -19000,7 +18996,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -19014,7 +19010,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -19028,7 +19024,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -19042,7 +19038,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -19056,7 +19052,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19070,7 +19066,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19084,7 +19080,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19098,7 +19094,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19112,7 +19108,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19123,8 +19119,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19150,7 +19146,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19191,7 +19187,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19232,7 +19228,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19296,7 +19292,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19325,7 +19321,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19357,7 +19353,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19377,7 +19373,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19400,7 +19396,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19411,7 +19407,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19419,7 +19415,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19432,7 +19428,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
